--- a/zeitplanung_nando.xlsx
+++ b/zeitplanung_nando.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
   <workbookPr codeName="DieseArbeitsmappe" showPivotChartFilter="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nando.EDP\OneDrive - sluz\Dokumente\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nando.EDP\OneDrive - sluz\Dokumente\Lehre\Adligenswil\Projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD910EDE-5A05-4FBF-9C50-7ED540645A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6E0C5E-5BE9-4D97-B618-118DBF6FFAD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplanung" sheetId="1" r:id="rId1"/>
@@ -1618,6 +1618,18 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="47" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1648,18 +1660,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="47" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1838,10 +1838,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2348,8 +2348,8 @@
   </sheetPr>
   <dimension ref="A1:BJ45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AC30" sqref="AC30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2668,88 +2668,88 @@
     <row r="7" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9"/>
       <c r="B7" s="26"/>
-      <c r="C7" s="115" t="s">
+      <c r="C7" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="115"/>
+      <c r="D7" s="118"/>
       <c r="E7" s="27" t="s">
         <v>19</v>
       </c>
       <c r="F7" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="116" t="s">
+      <c r="G7" s="119" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="116"/>
-      <c r="I7" s="116"/>
-      <c r="J7" s="116"/>
-      <c r="K7" s="116"/>
-      <c r="L7" s="116"/>
-      <c r="M7" s="117"/>
-      <c r="N7" s="116" t="s">
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="119"/>
+      <c r="K7" s="119"/>
+      <c r="L7" s="119"/>
+      <c r="M7" s="120"/>
+      <c r="N7" s="119" t="s">
         <v>34</v>
       </c>
-      <c r="O7" s="116"/>
-      <c r="P7" s="116"/>
-      <c r="Q7" s="116"/>
-      <c r="R7" s="116"/>
-      <c r="S7" s="116"/>
-      <c r="T7" s="117"/>
-      <c r="U7" s="116" t="s">
+      <c r="O7" s="119"/>
+      <c r="P7" s="119"/>
+      <c r="Q7" s="119"/>
+      <c r="R7" s="119"/>
+      <c r="S7" s="119"/>
+      <c r="T7" s="120"/>
+      <c r="U7" s="119" t="s">
         <v>35</v>
       </c>
-      <c r="V7" s="116"/>
-      <c r="W7" s="116"/>
-      <c r="X7" s="116"/>
-      <c r="Y7" s="116"/>
-      <c r="Z7" s="116"/>
-      <c r="AA7" s="117"/>
-      <c r="AB7" s="118" t="s">
+      <c r="V7" s="119"/>
+      <c r="W7" s="119"/>
+      <c r="X7" s="119"/>
+      <c r="Y7" s="119"/>
+      <c r="Z7" s="119"/>
+      <c r="AA7" s="120"/>
+      <c r="AB7" s="121" t="s">
         <v>36</v>
       </c>
-      <c r="AC7" s="116"/>
-      <c r="AD7" s="116"/>
-      <c r="AE7" s="116"/>
-      <c r="AF7" s="116"/>
-      <c r="AG7" s="116"/>
-      <c r="AH7" s="117"/>
-      <c r="AI7" s="116" t="s">
+      <c r="AC7" s="119"/>
+      <c r="AD7" s="119"/>
+      <c r="AE7" s="119"/>
+      <c r="AF7" s="119"/>
+      <c r="AG7" s="119"/>
+      <c r="AH7" s="120"/>
+      <c r="AI7" s="119" t="s">
         <v>37</v>
       </c>
-      <c r="AJ7" s="116"/>
-      <c r="AK7" s="116"/>
-      <c r="AL7" s="116"/>
-      <c r="AM7" s="116"/>
-      <c r="AN7" s="116"/>
-      <c r="AO7" s="117"/>
-      <c r="AP7" s="118" t="s">
+      <c r="AJ7" s="119"/>
+      <c r="AK7" s="119"/>
+      <c r="AL7" s="119"/>
+      <c r="AM7" s="119"/>
+      <c r="AN7" s="119"/>
+      <c r="AO7" s="120"/>
+      <c r="AP7" s="121" t="s">
         <v>38</v>
       </c>
-      <c r="AQ7" s="116"/>
-      <c r="AR7" s="116"/>
-      <c r="AS7" s="116"/>
-      <c r="AT7" s="116"/>
-      <c r="AU7" s="116"/>
-      <c r="AV7" s="117"/>
-      <c r="AW7" s="116" t="s">
+      <c r="AQ7" s="119"/>
+      <c r="AR7" s="119"/>
+      <c r="AS7" s="119"/>
+      <c r="AT7" s="119"/>
+      <c r="AU7" s="119"/>
+      <c r="AV7" s="120"/>
+      <c r="AW7" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="AX7" s="116"/>
-      <c r="AY7" s="116"/>
-      <c r="AZ7" s="116"/>
-      <c r="BA7" s="116"/>
-      <c r="BB7" s="116"/>
-      <c r="BC7" s="117"/>
-      <c r="BD7" s="118" t="s">
+      <c r="AX7" s="119"/>
+      <c r="AY7" s="119"/>
+      <c r="AZ7" s="119"/>
+      <c r="BA7" s="119"/>
+      <c r="BB7" s="119"/>
+      <c r="BC7" s="120"/>
+      <c r="BD7" s="121" t="s">
         <v>40</v>
       </c>
-      <c r="BE7" s="116"/>
-      <c r="BF7" s="116"/>
-      <c r="BG7" s="116"/>
-      <c r="BH7" s="116"/>
-      <c r="BI7" s="116"/>
-      <c r="BJ7" s="119"/>
+      <c r="BE7" s="119"/>
+      <c r="BF7" s="119"/>
+      <c r="BG7" s="119"/>
+      <c r="BH7" s="119"/>
+      <c r="BI7" s="119"/>
+      <c r="BJ7" s="122"/>
     </row>
     <row r="8" spans="1:62" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
@@ -3050,7 +3050,7 @@
       <c r="U10" s="52"/>
       <c r="V10" s="53"/>
       <c r="W10" s="54"/>
-      <c r="X10" s="124"/>
+      <c r="X10" s="115"/>
       <c r="Y10" s="55"/>
       <c r="Z10" s="56"/>
       <c r="AA10" s="57"/>
@@ -3338,7 +3338,7 @@
       </c>
       <c r="D14" s="41">
         <f>SUM(D15:D17)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E14" s="31"/>
       <c r="F14" s="30"/>
@@ -3411,14 +3411,16 @@
       </c>
       <c r="D15" s="80">
         <f>SUM(G15:BJ15)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E15" s="49"/>
       <c r="F15" s="84"/>
       <c r="G15" s="52"/>
       <c r="H15" s="53"/>
       <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
+      <c r="J15" s="54">
+        <v>4</v>
+      </c>
       <c r="K15" s="103"/>
       <c r="L15" s="56"/>
       <c r="M15" s="57"/>
@@ -3627,7 +3629,7 @@
       </c>
       <c r="D18" s="41">
         <f>SUM(D19:D33)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E18" s="31"/>
       <c r="F18" s="30"/>
@@ -3700,14 +3702,16 @@
       </c>
       <c r="D19" s="80">
         <f t="shared" ref="D19:D33" si="1">SUM(G19:BJ19)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E19" s="49"/>
       <c r="F19" s="50"/>
       <c r="G19" s="52"/>
       <c r="H19" s="53"/>
       <c r="I19" s="54"/>
-      <c r="J19" s="54"/>
+      <c r="J19" s="54">
+        <v>4</v>
+      </c>
       <c r="K19" s="55"/>
       <c r="L19" s="56"/>
       <c r="M19" s="57"/>
@@ -3773,7 +3777,7 @@
       </c>
       <c r="D20" s="80">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E20" s="49"/>
       <c r="F20" s="50"/>
@@ -3781,7 +3785,9 @@
       <c r="H20" s="59"/>
       <c r="I20" s="54"/>
       <c r="J20" s="54"/>
-      <c r="K20" s="55"/>
+      <c r="K20" s="55">
+        <v>8</v>
+      </c>
       <c r="L20" s="56"/>
       <c r="M20" s="57"/>
       <c r="N20" s="58"/>
@@ -4455,7 +4461,7 @@
       <c r="Y29" s="55"/>
       <c r="Z29" s="56"/>
       <c r="AA29" s="57"/>
-      <c r="AB29" s="125"/>
+      <c r="AB29" s="116"/>
       <c r="AC29" s="107"/>
       <c r="AD29" s="54"/>
       <c r="AE29" s="88"/>
@@ -4529,7 +4535,7 @@
       <c r="Z30" s="56"/>
       <c r="AA30" s="57"/>
       <c r="AB30" s="101"/>
-      <c r="AC30" s="126"/>
+      <c r="AC30" s="117"/>
       <c r="AD30" s="103"/>
       <c r="AE30" s="88"/>
       <c r="AF30" s="89"/>
@@ -4602,7 +4608,7 @@
       <c r="Z31" s="56"/>
       <c r="AA31" s="57"/>
       <c r="AB31" s="101"/>
-      <c r="AC31" s="126"/>
+      <c r="AC31" s="117"/>
       <c r="AD31" s="108"/>
       <c r="AE31" s="88"/>
       <c r="AF31" s="89"/>
@@ -5578,7 +5584,7 @@
       </c>
       <c r="D45" s="36">
         <f>D41+D38+D34+D18+D14+D9</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E45" s="36"/>
       <c r="F45" s="37"/>
@@ -5596,11 +5602,11 @@
       </c>
       <c r="J45" s="38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K45" s="38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L45" s="38">
         <f t="shared" si="4"/>
@@ -5853,10 +5859,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="123"/>
+      <c r="B2" s="126"/>
       <c r="C2" s="76" t="s">
         <v>13</v>
       </c>
@@ -5865,11 +5871,11 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="120" t="str">
+      <c r="A3" s="123" t="str">
         <f>Zeitplanung!B9</f>
         <v>Administration, Planung</v>
       </c>
-      <c r="B3" s="121"/>
+      <c r="B3" s="124"/>
       <c r="C3" s="77">
         <f>Zeitplanung!C9</f>
         <v>3.5</v>
@@ -5882,45 +5888,45 @@
       <c r="F3" s="78"/>
     </row>
     <row r="4" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="120" t="str">
+      <c r="A4" s="123" t="str">
         <f>Zeitplanung!B14</f>
         <v>Analyse &amp; Design</v>
       </c>
-      <c r="B4" s="121"/>
+      <c r="B4" s="124"/>
       <c r="C4" s="77">
         <f>Zeitplanung!C14</f>
         <v>12</v>
       </c>
       <c r="D4" s="77">
         <f>Zeitplanung!D14</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E4" s="79"/>
       <c r="F4" s="78"/>
     </row>
     <row r="5" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="120" t="str">
+      <c r="A5" s="123" t="str">
         <f>Zeitplanung!B18</f>
         <v>Implementation</v>
       </c>
-      <c r="B5" s="121"/>
+      <c r="B5" s="124"/>
       <c r="C5" s="77">
         <f>Zeitplanung!C18</f>
         <v>56</v>
       </c>
       <c r="D5" s="77">
         <f>Zeitplanung!D18</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E5" s="79"/>
       <c r="F5" s="78"/>
     </row>
     <row r="6" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="120" t="str">
+      <c r="A6" s="123" t="str">
         <f>Zeitplanung!B34</f>
         <v>Testen</v>
       </c>
-      <c r="B6" s="121"/>
+      <c r="B6" s="124"/>
       <c r="C6" s="77">
         <f>Zeitplanung!C34</f>
         <v>0</v>
@@ -5932,11 +5938,11 @@
       <c r="F6" s="78"/>
     </row>
     <row r="7" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="120" t="str">
+      <c r="A7" s="123" t="str">
         <f>Zeitplanung!B38</f>
         <v>Diverses</v>
       </c>
-      <c r="B7" s="121"/>
+      <c r="B7" s="124"/>
       <c r="C7" s="77">
         <f>Zeitplanung!C38</f>
         <v>0</v>
@@ -5948,11 +5954,11 @@
       <c r="F7" s="78"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="120" t="str">
+      <c r="A8" s="123" t="str">
         <f>Zeitplanung!B41</f>
         <v>Abschluss</v>
       </c>
-      <c r="B8" s="121"/>
+      <c r="B8" s="124"/>
       <c r="C8" s="77">
         <f>Zeitplanung!C41</f>
         <v>0</v>

--- a/zeitplanung_nando.xlsx
+++ b/zeitplanung_nando.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nando.EDP\OneDrive - sluz\Dokumente\Lehre\Adligenswil\Projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6E0C5E-5BE9-4D97-B618-118DBF6FFAD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11006AAD-CF10-49E5-AD2A-E90C3943A1AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1841,7 +1841,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2348,8 +2348,8 @@
   </sheetPr>
   <dimension ref="A1:BJ45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="X24" sqref="X24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3629,7 +3629,7 @@
       </c>
       <c r="D18" s="41">
         <f>SUM(D19:D33)</f>
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E18" s="31"/>
       <c r="F18" s="30"/>
@@ -3852,7 +3852,7 @@
       </c>
       <c r="D21" s="80">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E21" s="49"/>
       <c r="F21" s="51"/>
@@ -3867,7 +3867,9 @@
       <c r="O21" s="59"/>
       <c r="P21" s="88"/>
       <c r="Q21" s="54"/>
-      <c r="R21" s="104"/>
+      <c r="R21" s="104">
+        <v>8</v>
+      </c>
       <c r="S21" s="56"/>
       <c r="T21" s="57"/>
       <c r="U21" s="58"/>
@@ -3925,7 +3927,7 @@
       </c>
       <c r="D22" s="80">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" s="49"/>
       <c r="F22" s="50"/>
@@ -3945,7 +3947,9 @@
       <c r="T22" s="57"/>
       <c r="U22" s="58"/>
       <c r="V22" s="59"/>
-      <c r="W22" s="103"/>
+      <c r="W22" s="103">
+        <v>1</v>
+      </c>
       <c r="X22" s="54"/>
       <c r="Y22" s="55"/>
       <c r="Z22" s="56"/>
@@ -3998,7 +4002,7 @@
       </c>
       <c r="D23" s="80">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" s="49"/>
       <c r="F23" s="50"/>
@@ -4018,7 +4022,9 @@
       <c r="T23" s="57"/>
       <c r="U23" s="58"/>
       <c r="V23" s="59"/>
-      <c r="W23" s="105"/>
+      <c r="W23" s="105">
+        <v>1</v>
+      </c>
       <c r="X23" s="60"/>
       <c r="Y23" s="55"/>
       <c r="Z23" s="56"/>
@@ -5584,7 +5590,7 @@
       </c>
       <c r="D45" s="36">
         <f>D41+D38+D34+D18+D14+D9</f>
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E45" s="36"/>
       <c r="F45" s="37"/>
@@ -5634,7 +5640,7 @@
       </c>
       <c r="R45" s="38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S45" s="38">
         <f t="shared" si="4"/>
@@ -5654,7 +5660,7 @@
       </c>
       <c r="W45" s="38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X45" s="38">
         <f t="shared" si="4"/>
@@ -5916,7 +5922,7 @@
       </c>
       <c r="D5" s="77">
         <f>Zeitplanung!D18</f>
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E5" s="79"/>
       <c r="F5" s="78"/>

--- a/zeitplanung_nando.xlsx
+++ b/zeitplanung_nando.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nando.EDP\OneDrive - sluz\Dokumente\Lehre\Adligenswil\Projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11006AAD-CF10-49E5-AD2A-E90C3943A1AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03EA1B8C-7127-4978-B80E-23890C34488B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1841,7 +1841,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2349,7 +2349,7 @@
   <dimension ref="A1:BJ45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="X24" sqref="X24"/>
+      <selection activeCell="AB28" sqref="AB28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3629,7 +3629,7 @@
       </c>
       <c r="D18" s="41">
         <f>SUM(D19:D33)</f>
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E18" s="31"/>
       <c r="F18" s="30"/>
@@ -4077,7 +4077,7 @@
       </c>
       <c r="D24" s="80">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E24" s="49"/>
       <c r="F24" s="50"/>
@@ -4098,7 +4098,9 @@
       <c r="U24" s="58"/>
       <c r="V24" s="59"/>
       <c r="W24" s="108"/>
-      <c r="X24" s="103"/>
+      <c r="X24" s="103">
+        <v>2</v>
+      </c>
       <c r="Y24" s="55"/>
       <c r="Z24" s="56"/>
       <c r="AA24" s="57"/>
@@ -4150,7 +4152,7 @@
       </c>
       <c r="D25" s="80">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E25" s="49"/>
       <c r="F25" s="50"/>
@@ -4171,7 +4173,9 @@
       <c r="U25" s="58"/>
       <c r="V25" s="59"/>
       <c r="W25" s="108"/>
-      <c r="X25" s="103"/>
+      <c r="X25" s="103">
+        <v>2</v>
+      </c>
       <c r="Y25" s="104"/>
       <c r="Z25" s="56"/>
       <c r="AA25" s="57"/>
@@ -4223,7 +4227,7 @@
       </c>
       <c r="D26" s="80">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E26" s="49"/>
       <c r="F26" s="50"/>
@@ -4245,7 +4249,9 @@
       <c r="V26" s="59"/>
       <c r="W26" s="54"/>
       <c r="X26" s="108"/>
-      <c r="Y26" s="104"/>
+      <c r="Y26" s="104">
+        <v>2</v>
+      </c>
       <c r="Z26" s="56"/>
       <c r="AA26" s="57"/>
       <c r="AB26" s="98"/>
@@ -4296,7 +4302,7 @@
       </c>
       <c r="D27" s="80">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E27" s="49"/>
       <c r="F27" s="50"/>
@@ -4321,7 +4327,9 @@
       <c r="Y27" s="113"/>
       <c r="Z27" s="56"/>
       <c r="AA27" s="57"/>
-      <c r="AB27" s="106"/>
+      <c r="AB27" s="106">
+        <v>4</v>
+      </c>
       <c r="AC27" s="60"/>
       <c r="AD27" s="54"/>
       <c r="AE27" s="88"/>
@@ -5590,7 +5598,7 @@
       </c>
       <c r="D45" s="36">
         <f>D41+D38+D34+D18+D14+D9</f>
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="E45" s="36"/>
       <c r="F45" s="37"/>
@@ -5664,11 +5672,11 @@
       </c>
       <c r="X45" s="38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y45" s="38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z45" s="38">
         <f t="shared" si="4"/>
@@ -5680,7 +5688,7 @@
       </c>
       <c r="AB45" s="38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC45" s="38">
         <f t="shared" si="4"/>
@@ -5922,7 +5930,7 @@
       </c>
       <c r="D5" s="77">
         <f>Zeitplanung!D18</f>
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E5" s="79"/>
       <c r="F5" s="78"/>

--- a/zeitplanung_nando.xlsx
+++ b/zeitplanung_nando.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
   <workbookPr codeName="DieseArbeitsmappe" showPivotChartFilter="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nando.EDP\OneDrive - sluz\Dokumente\Lehre\Adligenswil\Projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03EA1B8C-7127-4978-B80E-23890C34488B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{064E099D-7545-4606-A5E6-E70FECE984C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1841,7 +1841,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -1850,7 +1850,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2348,8 +2348,8 @@
   </sheetPr>
   <dimension ref="A1:BJ45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AB28" sqref="AB28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AD29" sqref="AD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3629,7 +3629,7 @@
       </c>
       <c r="D18" s="41">
         <f>SUM(D19:D33)</f>
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="E18" s="31"/>
       <c r="F18" s="30"/>
@@ -3927,7 +3927,7 @@
       </c>
       <c r="D22" s="80">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E22" s="49"/>
       <c r="F22" s="50"/>
@@ -3948,7 +3948,7 @@
       <c r="U22" s="58"/>
       <c r="V22" s="59"/>
       <c r="W22" s="103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X22" s="54"/>
       <c r="Y22" s="55"/>
@@ -4152,7 +4152,7 @@
       </c>
       <c r="D25" s="80">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E25" s="49"/>
       <c r="F25" s="50"/>
@@ -4174,9 +4174,11 @@
       <c r="V25" s="59"/>
       <c r="W25" s="108"/>
       <c r="X25" s="103">
+        <v>4</v>
+      </c>
+      <c r="Y25" s="104">
         <v>2</v>
       </c>
-      <c r="Y25" s="104"/>
       <c r="Z25" s="56"/>
       <c r="AA25" s="57"/>
       <c r="AB25" s="98"/>
@@ -4377,7 +4379,7 @@
       </c>
       <c r="D28" s="80">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E28" s="49"/>
       <c r="F28" s="50"/>
@@ -4402,7 +4404,9 @@
       <c r="Y28" s="55"/>
       <c r="Z28" s="56"/>
       <c r="AA28" s="57"/>
-      <c r="AB28" s="106"/>
+      <c r="AB28" s="106">
+        <v>4</v>
+      </c>
       <c r="AC28" s="60"/>
       <c r="AD28" s="54"/>
       <c r="AE28" s="88"/>
@@ -4427,7 +4431,9 @@
       <c r="AX28" s="59"/>
       <c r="AY28" s="88"/>
       <c r="AZ28" s="88"/>
-      <c r="BA28" s="55"/>
+      <c r="BA28" s="104">
+        <v>8</v>
+      </c>
       <c r="BB28" s="56"/>
       <c r="BC28" s="57"/>
       <c r="BD28" s="58"/>
@@ -4450,7 +4456,7 @@
       </c>
       <c r="D29" s="80">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E29" s="49"/>
       <c r="F29" s="50"/>
@@ -4476,8 +4482,12 @@
       <c r="Z29" s="56"/>
       <c r="AA29" s="57"/>
       <c r="AB29" s="116"/>
-      <c r="AC29" s="107"/>
-      <c r="AD29" s="54"/>
+      <c r="AC29" s="107">
+        <v>8</v>
+      </c>
+      <c r="AD29" s="103">
+        <v>4</v>
+      </c>
       <c r="AE29" s="88"/>
       <c r="AF29" s="89"/>
       <c r="AG29" s="56"/>
@@ -4523,7 +4533,7 @@
       </c>
       <c r="D30" s="80">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E30" s="49"/>
       <c r="F30" s="50"/>
@@ -4550,7 +4560,9 @@
       <c r="AA30" s="57"/>
       <c r="AB30" s="101"/>
       <c r="AC30" s="117"/>
-      <c r="AD30" s="103"/>
+      <c r="AD30" s="103">
+        <v>4</v>
+      </c>
       <c r="AE30" s="88"/>
       <c r="AF30" s="89"/>
       <c r="AG30" s="56"/>
@@ -5315,7 +5327,7 @@
       </c>
       <c r="D41" s="41">
         <f>SUM(D42:D44)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E41" s="31"/>
       <c r="F41" s="30"/>
@@ -5386,7 +5398,7 @@
       <c r="C42" s="48"/>
       <c r="D42" s="80">
         <f t="shared" ref="D42:D44" si="3">SUM(G42:BJ42)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E42" s="49"/>
       <c r="F42" s="50"/>
@@ -5436,7 +5448,9 @@
       <c r="AX42" s="53"/>
       <c r="AY42" s="88"/>
       <c r="AZ42" s="88"/>
-      <c r="BA42" s="112"/>
+      <c r="BA42" s="112">
+        <v>0.5</v>
+      </c>
       <c r="BB42" s="56"/>
       <c r="BC42" s="57"/>
       <c r="BD42" s="52"/>
@@ -5598,7 +5612,7 @@
       </c>
       <c r="D45" s="36">
         <f>D41+D38+D34+D18+D14+D9</f>
-        <v>36</v>
+        <v>69.5</v>
       </c>
       <c r="E45" s="36"/>
       <c r="F45" s="37"/>
@@ -5668,15 +5682,15 @@
       </c>
       <c r="W45" s="38">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X45" s="38">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Y45" s="38">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Z45" s="38">
         <f t="shared" si="4"/>
@@ -5688,15 +5702,15 @@
       </c>
       <c r="AB45" s="38">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AC45" s="38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD45" s="38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AE45" s="38">
         <f t="shared" si="4"/>
@@ -5788,7 +5802,7 @@
       </c>
       <c r="BA45" s="38">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="BB45" s="38">
         <f t="shared" si="5"/>
@@ -5930,7 +5944,7 @@
       </c>
       <c r="D5" s="77">
         <f>Zeitplanung!D18</f>
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="E5" s="79"/>
       <c r="F5" s="78"/>
@@ -5979,7 +5993,7 @@
       </c>
       <c r="D8" s="77">
         <f>Zeitplanung!D41</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F8" s="78"/>
     </row>
